--- a/2023-05/202305/04_単体テスト/04_単体試験仕様書/ログイン画面_単体テスト　張秋実.xlsx
+++ b/2023-05/202305/04_単体テスト/04_単体試験仕様書/ログイン画面_単体テスト　張秋実.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\202305\04_単体テスト\04_単体試験仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7CBB59-B20C-4208-88AA-0BA14C2F640D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7FE0AE-6FBE-47B8-B04D-CAAF40E98020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="804" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,39 +707,6 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -779,6 +746,81 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -794,53 +836,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1354,7 +1354,7 @@
   <sheetPr codeName="Sheet1111"/>
   <dimension ref="A1:AP236"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -1371,114 +1371,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="46" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="23" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="46" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="23" t="s">
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="26" t="s">
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="34" t="s">
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="34" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="25"/>
     </row>
     <row r="2" spans="1:42" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="37" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="37" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38" t="s">
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="41" t="s">
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="43">
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="32">
         <v>45071</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="41" t="s">
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43">
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="32">
         <v>45071</v>
       </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="45"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="34"/>
     </row>
     <row r="3" spans="1:42" ht="13">
       <c r="A3" s="11"/>
@@ -11598,6 +11598,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:Q2"/>
@@ -11612,9 +11615,6 @@
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.59055118110236204" bottom="0.59055118110236204" header="0.39370078740157499" footer="0.39370078740157499"/>
@@ -11630,7 +11630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ253"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="107" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="107" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:R10"/>
     </sheetView>
   </sheetViews>
@@ -11647,116 +11647,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="46" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="23" t="str">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36" t="str">
         <f>初期画面表示!M1</f>
         <v>KS</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="46" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="23" t="str">
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="36" t="str">
         <f>初期画面表示!V1</f>
         <v>KS001</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="26" t="s">
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="34" t="s">
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="34" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="25"/>
     </row>
     <row r="2" spans="1:36" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="37" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38" t="str">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27" t="str">
         <f>初期画面表示!M2</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="37" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38" t="str">
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27" t="str">
         <f>初期画面表示!V2</f>
         <v>ログイン</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="41" t="s">
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="43">
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="32">
         <v>45071</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="41" t="s">
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="45"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="34"/>
     </row>
     <row r="3" spans="1:36" ht="13">
       <c r="A3"/>
@@ -11797,24 +11797,24 @@
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" ht="26.15" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="67"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
       <c r="S4" s="6">
         <v>1</v>
       </c>
@@ -11847,28 +11847,28 @@
       <c r="AJ4" s="6"/>
     </row>
     <row r="5" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="52"/>
       <c r="S5" s="7" t="s">
         <v>16</v>
       </c>
@@ -11891,24 +11891,24 @@
       <c r="AJ5" s="7"/>
     </row>
     <row r="6" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="54"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="52"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -11929,26 +11929,26 @@
       <c r="AJ6" s="7"/>
     </row>
     <row r="7" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="54"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="52"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -11969,26 +11969,26 @@
       <c r="AJ7" s="7"/>
     </row>
     <row r="8" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7" t="s">
         <v>16</v>
@@ -12011,26 +12011,26 @@
       <c r="AJ8" s="7"/>
     </row>
     <row r="9" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="62" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="55"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7" t="s">
@@ -12059,24 +12059,24 @@
       <c r="AJ9" s="7"/>
     </row>
     <row r="10" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="54"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="52"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -12097,26 +12097,26 @@
       <c r="AJ10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="52"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -12137,26 +12137,26 @@
       <c r="AJ11" s="7"/>
     </row>
     <row r="12" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="64"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="55"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
         <v>16</v>
@@ -12181,26 +12181,26 @@
       <c r="AJ12" s="7"/>
     </row>
     <row r="13" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="62" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="64"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="55"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -12227,24 +12227,24 @@
       <c r="AJ13" s="7"/>
     </row>
     <row r="14" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="54"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="52"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -12265,26 +12265,26 @@
       <c r="AJ14" s="7"/>
     </row>
     <row r="15" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="54"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="52"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -12305,26 +12305,26 @@
       <c r="AJ15" s="7"/>
     </row>
     <row r="16" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="62" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="64"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="55"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -12347,26 +12347,26 @@
       <c r="AJ16" s="7"/>
     </row>
     <row r="17" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="62" t="s">
+      <c r="A17" s="62"/>
+      <c r="B17" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="64"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="55"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -12389,24 +12389,24 @@
       <c r="AJ17" s="7"/>
     </row>
     <row r="18" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="8"/>
       <c r="S18" s="7"/>
@@ -12431,24 +12431,24 @@
       <c r="AJ18" s="7"/>
     </row>
     <row r="19" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="52"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -12469,26 +12469,26 @@
       <c r="AJ19" s="7"/>
     </row>
     <row r="20" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="62"/>
+      <c r="B20" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="54"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="52"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7" t="s">
         <v>16</v>
@@ -12519,24 +12519,24 @@
       <c r="AJ20" s="7"/>
     </row>
     <row r="21" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="54"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="52"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -12557,24 +12557,24 @@
       <c r="AJ21" s="7"/>
     </row>
     <row r="22" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="54"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="52"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -12595,24 +12595,24 @@
       <c r="AJ22" s="7"/>
     </row>
     <row r="23" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="54"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="52"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -12633,24 +12633,24 @@
       <c r="AJ23" s="7"/>
     </row>
     <row r="24" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="48"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="54"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="52"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -12671,24 +12671,24 @@
       <c r="AJ24" s="7"/>
     </row>
     <row r="25" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="54"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="52"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -12709,28 +12709,28 @@
       <c r="AJ25" s="7"/>
     </row>
     <row r="26" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="54"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="52"/>
       <c r="S26" s="7" t="s">
         <v>16</v>
       </c>
@@ -12753,26 +12753,26 @@
       <c r="AJ26" s="7"/>
     </row>
     <row r="27" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="52" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="54"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="52"/>
       <c r="S27" s="7" t="s">
         <v>16</v>
       </c>
@@ -12795,26 +12795,26 @@
       <c r="AJ27" s="7"/>
     </row>
     <row r="28" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="54"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="52"/>
       <c r="S28" s="7" t="s">
         <v>16</v>
       </c>
@@ -12837,24 +12837,24 @@
       <c r="AJ28" s="7"/>
     </row>
     <row r="29" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="54"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="52"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -12875,26 +12875,26 @@
       <c r="AJ29" s="7"/>
     </row>
     <row r="30" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="52" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="54"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="52"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7" t="s">
         <v>16</v>
@@ -12917,26 +12917,26 @@
       <c r="AJ30" s="7"/>
     </row>
     <row r="31" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="52" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="54"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="52"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7" t="s">
         <v>16</v>
@@ -12961,26 +12961,26 @@
       <c r="AJ31" s="7"/>
     </row>
     <row r="32" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="59" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="61"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="60"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
       <c r="U32" s="21"/>
@@ -13003,26 +13003,26 @@
       <c r="AJ32" s="9"/>
     </row>
     <row r="33" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="59" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="61"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="60"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -13045,24 +13045,24 @@
       <c r="AJ33" s="7"/>
     </row>
     <row r="34" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="54"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="52"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -13083,26 +13083,26 @@
       <c r="AJ34" s="7"/>
     </row>
     <row r="35" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="58" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="54"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="52"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -13125,24 +13125,24 @@
       <c r="AJ35" s="7"/>
     </row>
     <row r="36" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="54"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="52"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -13163,24 +13163,24 @@
       <c r="AJ36" s="7"/>
     </row>
     <row r="37" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="54"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="52"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
@@ -13201,24 +13201,24 @@
       <c r="AJ37" s="7"/>
     </row>
     <row r="38" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="50"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="54"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="52"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
@@ -13239,24 +13239,24 @@
       <c r="AJ38" s="7"/>
     </row>
     <row r="39" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="54"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="52"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
@@ -13277,24 +13277,24 @@
       <c r="AJ39" s="7"/>
     </row>
     <row r="40" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="50"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="54"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="52"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
@@ -13315,24 +13315,24 @@
       <c r="AJ40" s="7"/>
     </row>
     <row r="41" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="50"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="54"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="52"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
@@ -13353,24 +13353,24 @@
       <c r="AJ41" s="7"/>
     </row>
     <row r="42" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="50"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="54"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="52"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -13391,24 +13391,24 @@
       <c r="AJ42" s="7"/>
     </row>
     <row r="43" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A43" s="50"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="54"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="52"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -13429,24 +13429,24 @@
       <c r="AJ43" s="7"/>
     </row>
     <row r="44" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="54"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="52"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -13467,26 +13467,26 @@
       <c r="AJ44" s="7"/>
     </row>
     <row r="45" spans="1:36" ht="18" customHeight="1">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
       <c r="S45" s="10" t="s">
         <v>16</v>
       </c>
@@ -13519,26 +13519,26 @@
       <c r="AJ45" s="10"/>
     </row>
     <row r="46" spans="1:36" ht="18" customHeight="1">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="47"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
       <c r="S46" s="7" t="s">
         <v>38</v>
       </c>
@@ -13571,26 +13571,26 @@
       <c r="AJ46" s="7"/>
     </row>
     <row r="47" spans="1:36" ht="28.15" customHeight="1">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="66"/>
       <c r="S47" s="13">
         <v>45071</v>
       </c>
@@ -13623,26 +13623,26 @@
       <c r="AJ47" s="14"/>
     </row>
     <row r="48" spans="1:36" ht="18" customHeight="1">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
@@ -13663,26 +13663,26 @@
       <c r="AJ48" s="7"/>
     </row>
     <row r="49" spans="1:36" ht="28.15" customHeight="1">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
       <c r="S49" s="13"/>
       <c r="T49" s="14"/>
       <c r="U49" s="14"/>
@@ -21456,6 +21456,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="A5:A25"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="B44:R44"/>
+    <mergeCell ref="A45:R45"/>
+    <mergeCell ref="A46:R46"/>
+    <mergeCell ref="A47:R47"/>
+    <mergeCell ref="A48:R48"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B40:R40"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B43:R43"/>
+    <mergeCell ref="B34:R34"/>
+    <mergeCell ref="B35:R35"/>
+    <mergeCell ref="B36:R36"/>
+    <mergeCell ref="B37:R37"/>
+    <mergeCell ref="B38:R38"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B31:R31"/>
+    <mergeCell ref="B33:R33"/>
+    <mergeCell ref="B32:R32"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="B6:R6"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B8:R8"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
@@ -21472,55 +21521,6 @@
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B36:R36"/>
-    <mergeCell ref="B37:R37"/>
-    <mergeCell ref="B38:R38"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B31:R31"/>
-    <mergeCell ref="B33:R33"/>
-    <mergeCell ref="B32:R32"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="A5:A25"/>
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="B44:R44"/>
-    <mergeCell ref="A45:R45"/>
-    <mergeCell ref="A46:R46"/>
-    <mergeCell ref="A47:R47"/>
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B43:R43"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="B35:R35"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">

--- a/2023-05/202305/04_単体テスト/04_単体試験仕様書/ログイン画面_単体テスト　張秋実.xlsx
+++ b/2023-05/202305/04_単体テスト/04_単体試験仕様書/ログイン画面_単体テスト　張秋実.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\202305\04_単体テスト\04_単体試験仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7FE0AE-6FBE-47B8-B04D-CAAF40E98020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DD9FF0-BB1B-47B3-B58C-B4546072B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="804" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>確認内容</t>
   </si>
   <si>
-    <t>社員IDに空白が表示されること。</t>
-  </si>
-  <si>
     <t>パスワードに空白が表示されること。</t>
   </si>
   <si>
@@ -177,13 +174,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>エラー「パスワードを入力してください」が表示されること。</t>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>張</t>
     <rPh sb="0" eb="1">
       <t>チョウ</t>
@@ -210,13 +200,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ジツ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>エラー「IDを入力してください」が表示されること。</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
@@ -249,6 +232,24 @@
     <rPh sb="0" eb="3">
       <t>ハリアキジツ</t>
     </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>エラー「パスワードを入力してください。」が表示されること。</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>エラー「IDを入力してください。」が表示されること。</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>社員IDに空白が表示されること。</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -707,6 +708,24 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -715,6 +734,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -755,72 +780,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -836,11 +795,53 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1371,114 +1372,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="35" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="36" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="39" t="s">
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="23" t="s">
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="31"/>
+    </row>
+    <row r="2" spans="1:42" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="25"/>
-    </row>
-    <row r="2" spans="1:42" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="26" t="s">
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27" t="s">
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="30" t="s">
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="32">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="40">
         <v>45071</v>
       </c>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="32">
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40">
         <v>45071</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="34"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="42"/>
     </row>
     <row r="3" spans="1:42" ht="13">
       <c r="A3" s="11"/>
@@ -11598,6 +11599,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
@@ -11614,7 +11616,6 @@
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.59055118110236204" bottom="0.59055118110236204" header="0.39370078740157499" footer="0.39370078740157499"/>
@@ -11630,8 +11631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ253"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="107" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:R10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="107" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="V3" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="9.5"/>
@@ -11647,116 +11648,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="35" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36" t="str">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44" t="str">
         <f>初期画面表示!M1</f>
         <v>KS</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="36" t="str">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="44" t="str">
         <f>初期画面表示!V1</f>
         <v>KS001</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="39" t="s">
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="23" t="s">
-        <v>45</v>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="29" t="s">
+        <v>42</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="23" t="s">
-        <v>45</v>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="29" t="s">
+        <v>42</v>
       </c>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="25"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="31"/>
     </row>
     <row r="2" spans="1:36" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="26" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27" t="str">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35" t="str">
         <f>初期画面表示!M2</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="26" t="s">
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27" t="str">
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="35" t="str">
         <f>初期画面表示!V2</f>
         <v>ログイン</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="30" t="s">
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="32">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="40">
         <v>45071</v>
       </c>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="34"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="42"/>
     </row>
     <row r="3" spans="1:36" ht="13">
       <c r="A3"/>
@@ -11797,24 +11798,24 @@
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" ht="26.15" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="49"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="67"/>
       <c r="S4" s="6">
         <v>1</v>
       </c>
@@ -11847,28 +11848,28 @@
       <c r="AJ4" s="6"/>
     </row>
     <row r="5" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="54"/>
       <c r="S5" s="7" t="s">
         <v>16</v>
       </c>
@@ -11891,24 +11892,24 @@
       <c r="AJ5" s="7"/>
     </row>
     <row r="6" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="52"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="54"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -11929,26 +11930,26 @@
       <c r="AJ6" s="7"/>
     </row>
     <row r="7" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="54"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -11969,26 +11970,26 @@
       <c r="AJ7" s="7"/>
     </row>
     <row r="8" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="55"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7" t="s">
         <v>16</v>
@@ -12011,26 +12012,26 @@
       <c r="AJ8" s="7"/>
     </row>
     <row r="9" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="64"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7" t="s">
@@ -12059,24 +12060,24 @@
       <c r="AJ9" s="7"/>
     </row>
     <row r="10" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="52"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="54"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -12097,26 +12098,26 @@
       <c r="AJ10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="54"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -12137,26 +12138,26 @@
       <c r="AJ11" s="7"/>
     </row>
     <row r="12" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="55"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="64"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
         <v>16</v>
@@ -12181,26 +12182,26 @@
       <c r="AJ12" s="7"/>
     </row>
     <row r="13" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="53" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="55"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="64"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -12227,24 +12228,24 @@
       <c r="AJ13" s="7"/>
     </row>
     <row r="14" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="52"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="54"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -12265,26 +12266,26 @@
       <c r="AJ14" s="7"/>
     </row>
     <row r="15" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="54"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -12305,26 +12306,26 @@
       <c r="AJ15" s="7"/>
     </row>
     <row r="16" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="55"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="64"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -12347,26 +12348,26 @@
       <c r="AJ16" s="7"/>
     </row>
     <row r="17" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="55"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="64"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -12389,24 +12390,24 @@
       <c r="AJ17" s="7"/>
     </row>
     <row r="18" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="8"/>
       <c r="S18" s="7"/>
@@ -12431,24 +12432,24 @@
       <c r="AJ18" s="7"/>
     </row>
     <row r="19" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="52"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="54"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -12469,26 +12470,26 @@
       <c r="AJ19" s="7"/>
     </row>
     <row r="20" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="54"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7" t="s">
         <v>16</v>
@@ -12519,24 +12520,24 @@
       <c r="AJ20" s="7"/>
     </row>
     <row r="21" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="52"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="54"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -12557,24 +12558,24 @@
       <c r="AJ21" s="7"/>
     </row>
     <row r="22" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="62"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="52"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="54"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -12595,24 +12596,24 @@
       <c r="AJ22" s="7"/>
     </row>
     <row r="23" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="52"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="54"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -12633,24 +12634,24 @@
       <c r="AJ23" s="7"/>
     </row>
     <row r="24" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="52"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="54"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -12671,24 +12672,24 @@
       <c r="AJ24" s="7"/>
     </row>
     <row r="25" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="52"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="54"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -12709,28 +12710,28 @@
       <c r="AJ25" s="7"/>
     </row>
     <row r="26" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="50" t="s">
-        <v>27</v>
+      <c r="B26" s="52" t="s">
+        <v>45</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="54"/>
       <c r="S26" s="7" t="s">
         <v>16</v>
       </c>
@@ -12753,26 +12754,26 @@
       <c r="AJ26" s="7"/>
     </row>
     <row r="27" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="50" t="s">
-        <v>28</v>
+      <c r="A27" s="50"/>
+      <c r="B27" s="52" t="s">
+        <v>27</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="54"/>
       <c r="S27" s="7" t="s">
         <v>16</v>
       </c>
@@ -12795,26 +12796,26 @@
       <c r="AJ27" s="7"/>
     </row>
     <row r="28" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="64"/>
-      <c r="B28" s="50" t="s">
-        <v>29</v>
+      <c r="A28" s="50"/>
+      <c r="B28" s="52" t="s">
+        <v>28</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="54"/>
       <c r="S28" s="7" t="s">
         <v>16</v>
       </c>
@@ -12837,24 +12838,24 @@
       <c r="AJ28" s="7"/>
     </row>
     <row r="29" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="52"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="54"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -12875,26 +12876,26 @@
       <c r="AJ29" s="7"/>
     </row>
     <row r="30" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="64"/>
-      <c r="B30" s="50" t="s">
-        <v>41</v>
+      <c r="A30" s="50"/>
+      <c r="B30" s="52" t="s">
+        <v>44</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="54"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7" t="s">
         <v>16</v>
@@ -12917,26 +12918,26 @@
       <c r="AJ30" s="7"/>
     </row>
     <row r="31" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="64"/>
-      <c r="B31" s="50" t="s">
-        <v>37</v>
+      <c r="A31" s="50"/>
+      <c r="B31" s="52" t="s">
+        <v>43</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="54"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7" t="s">
         <v>16</v>
@@ -12961,31 +12962,31 @@
       <c r="AJ31" s="7"/>
     </row>
     <row r="32" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="64"/>
-      <c r="B32" s="58" t="s">
-        <v>43</v>
+      <c r="A32" s="50"/>
+      <c r="B32" s="59" t="s">
+        <v>40</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="61"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W32" s="22"/>
       <c r="X32" s="9"/>
@@ -13003,32 +13004,32 @@
       <c r="AJ32" s="9"/>
     </row>
     <row r="33" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="58" t="s">
-        <v>44</v>
+      <c r="A33" s="50"/>
+      <c r="B33" s="59" t="s">
+        <v>41</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="61"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
       <c r="W33" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
@@ -13045,24 +13046,24 @@
       <c r="AJ33" s="7"/>
     </row>
     <row r="34" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="52"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="54"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -13083,26 +13084,26 @@
       <c r="AJ34" s="7"/>
     </row>
     <row r="35" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="64"/>
-      <c r="B35" s="67" t="s">
-        <v>35</v>
+      <c r="A35" s="50"/>
+      <c r="B35" s="58" t="s">
+        <v>34</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="54"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -13125,24 +13126,24 @@
       <c r="AJ35" s="7"/>
     </row>
     <row r="36" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="52"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="54"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -13163,24 +13164,24 @@
       <c r="AJ36" s="7"/>
     </row>
     <row r="37" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="52"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="54"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
@@ -13201,24 +13202,24 @@
       <c r="AJ37" s="7"/>
     </row>
     <row r="38" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="52"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="54"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
@@ -13239,24 +13240,24 @@
       <c r="AJ38" s="7"/>
     </row>
     <row r="39" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="64"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="52"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="54"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
@@ -13277,24 +13278,24 @@
       <c r="AJ39" s="7"/>
     </row>
     <row r="40" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="64"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="52"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="54"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
@@ -13315,24 +13316,24 @@
       <c r="AJ40" s="7"/>
     </row>
     <row r="41" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="52"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="54"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
@@ -13353,24 +13354,24 @@
       <c r="AJ41" s="7"/>
     </row>
     <row r="42" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="64"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="52"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="54"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -13391,24 +13392,24 @@
       <c r="AJ42" s="7"/>
     </row>
     <row r="43" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A43" s="64"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="52"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="54"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -13429,24 +13430,24 @@
       <c r="AJ43" s="7"/>
     </row>
     <row r="44" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="65"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="52"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="54"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -13467,26 +13468,26 @@
       <c r="AJ44" s="7"/>
     </row>
     <row r="45" spans="1:36" ht="18" customHeight="1">
-      <c r="A45" s="61" t="s">
-        <v>30</v>
+      <c r="A45" s="47" t="s">
+        <v>29</v>
       </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="61"/>
-      <c r="R45" s="61"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
       <c r="S45" s="10" t="s">
         <v>16</v>
       </c>
@@ -13519,43 +13520,43 @@
       <c r="AJ45" s="10"/>
     </row>
     <row r="46" spans="1:36" ht="18" customHeight="1">
-      <c r="A46" s="61" t="s">
-        <v>31</v>
+      <c r="A46" s="47" t="s">
+        <v>30</v>
       </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
       <c r="S46" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U46" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V46" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W46" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X46" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
@@ -13571,26 +13572,26 @@
       <c r="AJ46" s="7"/>
     </row>
     <row r="47" spans="1:36" ht="28.15" customHeight="1">
-      <c r="A47" s="56" t="s">
-        <v>32</v>
+      <c r="A47" s="55" t="s">
+        <v>31</v>
       </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="66"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="57"/>
       <c r="S47" s="13">
         <v>45071</v>
       </c>
@@ -13623,26 +13624,26 @@
       <c r="AJ47" s="14"/>
     </row>
     <row r="48" spans="1:36" ht="18" customHeight="1">
-      <c r="A48" s="61" t="s">
-        <v>33</v>
+      <c r="A48" s="47" t="s">
+        <v>32</v>
       </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
@@ -13663,26 +13664,26 @@
       <c r="AJ48" s="7"/>
     </row>
     <row r="49" spans="1:36" ht="28.15" customHeight="1">
-      <c r="A49" s="61" t="s">
-        <v>34</v>
+      <c r="A49" s="47" t="s">
+        <v>33</v>
       </c>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
       <c r="S49" s="13"/>
       <c r="T49" s="14"/>
       <c r="U49" s="14"/>
@@ -21456,6 +21457,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="B6:R6"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B36:R36"/>
+    <mergeCell ref="B37:R37"/>
+    <mergeCell ref="B38:R38"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B31:R31"/>
+    <mergeCell ref="B33:R33"/>
+    <mergeCell ref="B32:R32"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A49:R49"/>
     <mergeCell ref="A5:A25"/>
@@ -21472,55 +21522,6 @@
     <mergeCell ref="B43:R43"/>
     <mergeCell ref="B34:R34"/>
     <mergeCell ref="B35:R35"/>
-    <mergeCell ref="B36:R36"/>
-    <mergeCell ref="B37:R37"/>
-    <mergeCell ref="B38:R38"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B31:R31"/>
-    <mergeCell ref="B33:R33"/>
-    <mergeCell ref="B32:R32"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
